--- a/Master/MasterData/Area.xlsx
+++ b/Master/MasterData/Area.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">bSpawnAnpan</t>
+    <t xml:space="preserve">AnpanMax</t>
   </si>
   <si>
     <t xml:space="preserve">AnpanMinHp</t>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u8</t>
   </si>
   <si>
     <t xml:space="preserve">s32</t>
@@ -299,7 +296,7 @@
   <dimension ref="A5:L28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -350,42 +347,42 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0</v>
@@ -420,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>30</v>
@@ -455,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>50</v>
@@ -490,10 +487,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>70</v>
@@ -525,10 +522,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>90</v>
@@ -560,10 +557,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>110</v>
@@ -595,10 +592,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>130</v>
@@ -630,10 +627,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>150</v>

--- a/Master/MasterData/Area.xlsx
+++ b/Master/MasterData/Area.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -31,37 +31,10 @@
     <t xml:space="preserve">AnpanMax</t>
   </si>
   <si>
-    <t xml:space="preserve">AnpanMinHp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnpanMaxHp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnpanMinAtk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnpanMaxAtk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnpanMinDef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnpanMaxDef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnpanMinExp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnpanMaxExp</t>
-  </si>
-  <si>
     <t xml:space="preserve">u32</t>
   </si>
   <si>
     <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s32</t>
   </si>
   <si>
     <t xml:space="preserve">$ITEM</t>
@@ -293,10 +266,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:L28"/>
+  <dimension ref="A5:D28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -314,101 +287,29 @@
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -417,34 +318,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>100</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,34 +329,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>100</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,34 +340,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>100</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,34 +351,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>100</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,34 +362,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>100</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>110</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,34 +373,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>100</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>130</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>140</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="I13" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="K13" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="L13" s="4" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,217 +384,81 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>100</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="F14" s="4" t="n">
-        <v>160</v>
-      </c>
-      <c r="G14" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="I14" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="J14" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="K14" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="L14" s="4" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Master/MasterData/Area.xlsx
+++ b/Master/MasterData/Area.xlsx
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnpanMax</t>
   </si>
   <si>
     <t xml:space="preserve">u32</t>
@@ -266,10 +263,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:D28"/>
+  <dimension ref="A5:C28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -284,33 +281,24 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -318,10 +306,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -329,10 +314,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -340,10 +322,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -351,10 +330,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -362,10 +338,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,10 +346,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -384,81 +354,64 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Master/MasterData/Area.xlsx
+++ b/Master/MasterData/Area.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">LevelName</t>
+  </si>
+  <si>
     <t xml:space="preserve">u32</t>
   </si>
   <si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">ロビー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map0001</t>
   </si>
   <si>
     <t xml:space="preserve">エリア１</t>
@@ -263,10 +269,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:C28"/>
+  <dimension ref="A5:D28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -281,24 +287,33 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,7 +321,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -314,6 +332,9 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -322,7 +343,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -330,7 +354,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,7 +365,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -346,7 +376,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,64 +387,81 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Master/MasterData/Area.xlsx
+++ b/Master/MasterData/Area.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">エリア１</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map0002</t>
   </si>
   <si>
     <t xml:space="preserve">エリア２</t>
@@ -272,7 +275,7 @@
   <dimension ref="A5:D28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -324,7 +327,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -332,10 +335,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,10 +346,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,10 +357,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -365,10 +368,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,10 +379,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -387,10 +390,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Master/MasterData/Area.xlsx
+++ b/Master/MasterData/Area.xlsx
@@ -20,7 +20,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">$ENUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORMAL_AREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTANCE_AREA</t>
+  </si>
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -31,12 +40,18 @@
     <t xml:space="preserve">LevelName</t>
   </si>
   <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">u32</t>
   </si>
   <si>
     <t xml:space="preserve">String</t>
   </si>
   <si>
+    <t xml:space="preserve">u8</t>
+  </si>
+  <si>
     <t xml:space="preserve">$ITEM</t>
   </si>
   <si>
@@ -68,6 +83,12 @@
   </si>
   <si>
     <t xml:space="preserve">エリア７</t>
+  </si>
+  <si>
+    <t xml:space="preserve">インスタンスマップ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map10000</t>
   </si>
 </sst>
 </file>
@@ -170,7 +191,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -192,6 +213,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -272,10 +297,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:D28"/>
+  <dimension ref="A3:E28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -283,40 +308,60 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
   </cols>
   <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -324,10 +369,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -335,10 +383,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -346,10 +397,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -357,10 +411,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -368,10 +425,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -379,10 +439,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -390,83 +453,114 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7:E15" type="list">
+      <formula1>Sheet1!$B$3:$C$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Master/MasterData/Area.xlsx
+++ b/Master/MasterData/Area.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t xml:space="preserve">$ENUM</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstanceInfoId</t>
   </si>
   <si>
     <t xml:space="preserve">u32</t>
@@ -297,15 +300,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:E28"/>
+  <dimension ref="A3:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="12.83"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -332,36 +337,45 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -369,13 +383,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>1</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -383,13 +400,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" s="5" t="s">
         <v>1</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -397,13 +417,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>1</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,13 +434,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>1</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,13 +451,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>1</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -439,13 +468,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>1</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -453,13 +485,16 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>1</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,13 +502,16 @@
         <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>2</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,78 +519,91 @@
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
